--- a/MedicalLink/Templates/BC_SoChiTietBenhNhan_01.xlsx
+++ b/MedicalLink/Templates/BC_SoChiTietBenhNhan_01.xlsx
@@ -430,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -474,6 +474,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -489,10 +495,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +792,7 @@
   <dimension ref="A2:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +801,8 @@
     <col min="2" max="2" width="27.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="10" width="18" style="1" customWidth="1"/>
@@ -821,148 +829,148 @@
     <row r="2" spans="1:39" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:39" s="9" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="17" t="s">
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AC7" s="17" t="s">
+      <c r="AC7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AD7" s="17" t="s">
+      <c r="AD7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AE7" s="17" t="s">
+      <c r="AE7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AF7" s="17" t="s">
+      <c r="AF7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AG7" s="17" t="s">
+      <c r="AG7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AH7" s="17" t="s">
+      <c r="AH7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI7" s="17" t="s">
+      <c r="AI7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AJ7" s="17" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AK7" s="17" t="s">
+      <c r="AK7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AL7" s="17" t="s">
+      <c r="AL7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AM7" s="17" t="s">
+      <c r="AM7" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:39" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
       <c r="O8" s="10" t="s">
         <v>7</v>
       </c>
@@ -1002,18 +1010,18 @@
       <c r="AA8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1028,7 +1036,7 @@
       <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1133,14 +1141,14 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -1251,6 +1259,24 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="G7:G8"/>
@@ -1263,24 +1289,6 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_SoChiTietBenhNhan_01.xlsx
+++ b/MedicalLink/Templates/BC_SoChiTietBenhNhan_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].DEPARTMENTGROUPNAME</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -474,33 +480,39 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AM13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +813,7 @@
     <col min="2" max="2" width="27.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" customWidth="1"/>
@@ -826,38 +838,45 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="2" spans="1:39" s="2" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="B2" s="3"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
       <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -874,7 +893,7 @@
       <c r="D7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="26" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="19" t="s">
@@ -961,7 +980,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -1036,7 +1055,7 @@
       <c r="D9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1259,24 +1278,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="AM7:AM8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="B7:B8"/>
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="G7:G8"/>
@@ -1289,6 +1290,24 @@
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AM7:AM8"/>
+    <mergeCell ref="AG7:AG8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AK7:AK8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
